--- a/data/pca/factorExposure/factorExposure_2012-02-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01710037241454954</v>
+        <v>0.01613487387307435</v>
       </c>
       <c r="C2">
-        <v>0.03016723125484488</v>
+        <v>-0.02517077511851937</v>
       </c>
       <c r="D2">
-        <v>-0.00410439883772143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007038783541463312</v>
+      </c>
+      <c r="E2">
+        <v>-0.01451062932173313</v>
+      </c>
+      <c r="F2">
+        <v>-0.01440720314534752</v>
+      </c>
+      <c r="G2">
+        <v>-0.01839313254789947</v>
+      </c>
+      <c r="H2">
+        <v>0.05099267075111922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07408433113777929</v>
+        <v>0.08816555555768089</v>
       </c>
       <c r="C4">
-        <v>0.05388272215419649</v>
+        <v>-0.04173405658453331</v>
       </c>
       <c r="D4">
-        <v>-0.08138545273342791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06475406438754285</v>
+      </c>
+      <c r="E4">
+        <v>-0.008069408727208316</v>
+      </c>
+      <c r="F4">
+        <v>-0.03768183939772816</v>
+      </c>
+      <c r="G4">
+        <v>-0.003232516752194158</v>
+      </c>
+      <c r="H4">
+        <v>-0.04156202117906561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.110610856769632</v>
+        <v>0.1197855478254988</v>
       </c>
       <c r="C6">
-        <v>0.05225421294350498</v>
+        <v>-0.03497197846098846</v>
       </c>
       <c r="D6">
-        <v>-0.0008155117848078596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01329342927779969</v>
+      </c>
+      <c r="E6">
+        <v>0.01946625115106845</v>
+      </c>
+      <c r="F6">
+        <v>-0.05513503899621085</v>
+      </c>
+      <c r="G6">
+        <v>-0.03435003554554823</v>
+      </c>
+      <c r="H6">
+        <v>0.1185717224050258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0523586301027506</v>
+        <v>0.0643664909884067</v>
       </c>
       <c r="C7">
-        <v>0.02424546392143974</v>
+        <v>-0.01555298570361172</v>
       </c>
       <c r="D7">
-        <v>-0.04516359309787047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04602462649606866</v>
+      </c>
+      <c r="E7">
+        <v>-0.03815683742195659</v>
+      </c>
+      <c r="F7">
+        <v>-0.03838427395459706</v>
+      </c>
+      <c r="G7">
+        <v>0.03637125555674652</v>
+      </c>
+      <c r="H7">
+        <v>-0.009964279587072819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04002053842389958</v>
+        <v>0.04112278107993098</v>
       </c>
       <c r="C8">
-        <v>0.01498770348609566</v>
+        <v>-0.01073680865685711</v>
       </c>
       <c r="D8">
-        <v>-0.05960366798700414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02389557939541683</v>
+      </c>
+      <c r="E8">
+        <v>-0.02255795323377122</v>
+      </c>
+      <c r="F8">
+        <v>-0.05602732115904693</v>
+      </c>
+      <c r="G8">
+        <v>-0.05712827710609319</v>
+      </c>
+      <c r="H8">
+        <v>0.006832516126486494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0692568082794994</v>
+        <v>0.07975784253785254</v>
       </c>
       <c r="C9">
-        <v>0.04171695095835933</v>
+        <v>-0.02949265916419822</v>
       </c>
       <c r="D9">
-        <v>-0.07053144148259519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06178976785594437</v>
+      </c>
+      <c r="E9">
+        <v>-0.02941640032223557</v>
+      </c>
+      <c r="F9">
+        <v>-0.03576205670077857</v>
+      </c>
+      <c r="G9">
+        <v>-0.009954593337892609</v>
+      </c>
+      <c r="H9">
+        <v>-0.05008369600799684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03000096439793869</v>
+        <v>0.03398425637111251</v>
       </c>
       <c r="C10">
-        <v>0.02372143518381318</v>
+        <v>-0.04045854488393313</v>
       </c>
       <c r="D10">
-        <v>0.1706365429927027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1710050141646137</v>
+      </c>
+      <c r="E10">
+        <v>-0.04126270361572787</v>
+      </c>
+      <c r="F10">
+        <v>-0.05197725973846644</v>
+      </c>
+      <c r="G10">
+        <v>0.0232939503874633</v>
+      </c>
+      <c r="H10">
+        <v>0.0353570338098033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07301526240008172</v>
+        <v>0.07728203635081284</v>
       </c>
       <c r="C11">
-        <v>0.04435547117433511</v>
+        <v>-0.02650843177578269</v>
       </c>
       <c r="D11">
-        <v>-0.05846175539927973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0622281287918744</v>
+      </c>
+      <c r="E11">
+        <v>0.005384735573242997</v>
+      </c>
+      <c r="F11">
+        <v>-0.02969105147188155</v>
+      </c>
+      <c r="G11">
+        <v>-0.000971579936138812</v>
+      </c>
+      <c r="H11">
+        <v>-0.08728291455865908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06040619540420469</v>
+        <v>0.06903684400402274</v>
       </c>
       <c r="C12">
-        <v>0.05189919140571079</v>
+        <v>-0.03757469804277431</v>
       </c>
       <c r="D12">
-        <v>-0.04756236883655263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04741612821187231</v>
+      </c>
+      <c r="E12">
+        <v>-0.01273703821167285</v>
+      </c>
+      <c r="F12">
+        <v>-0.02209009082251439</v>
+      </c>
+      <c r="G12">
+        <v>-0.003460723728717106</v>
+      </c>
+      <c r="H12">
+        <v>-0.04269645918817434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0620343026045867</v>
+        <v>0.06557052736026345</v>
       </c>
       <c r="C13">
-        <v>0.0340229104957458</v>
+        <v>-0.02145965377895208</v>
       </c>
       <c r="D13">
-        <v>-0.06196459743959182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0419163399275383</v>
+      </c>
+      <c r="E13">
+        <v>-0.01737452808612241</v>
+      </c>
+      <c r="F13">
+        <v>-0.01087260287149715</v>
+      </c>
+      <c r="G13">
+        <v>0.005170628684404199</v>
+      </c>
+      <c r="H13">
+        <v>-0.05525426912913492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03364348567159436</v>
+        <v>0.04031109243569593</v>
       </c>
       <c r="C14">
-        <v>0.03151445639209078</v>
+        <v>-0.02826428549195917</v>
       </c>
       <c r="D14">
-        <v>-0.002933431731746708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01025045220617017</v>
+      </c>
+      <c r="E14">
+        <v>-0.03084432931811948</v>
+      </c>
+      <c r="F14">
+        <v>-0.01401150020728501</v>
+      </c>
+      <c r="G14">
+        <v>-0.005689933618324656</v>
+      </c>
+      <c r="H14">
+        <v>-0.06115697396928843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04101291997130689</v>
+        <v>0.04052171722562489</v>
       </c>
       <c r="C15">
-        <v>0.009082468209305221</v>
+        <v>-0.003112744601315231</v>
       </c>
       <c r="D15">
-        <v>-0.01740236824358541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004377624817340915</v>
+      </c>
+      <c r="E15">
+        <v>-0.03482250943299942</v>
+      </c>
+      <c r="F15">
+        <v>-0.0001300796058229434</v>
+      </c>
+      <c r="G15">
+        <v>-0.02459677194420068</v>
+      </c>
+      <c r="H15">
+        <v>-0.03782790097722419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06196566003587631</v>
+        <v>0.0715908279843822</v>
       </c>
       <c r="C16">
-        <v>0.04149094781363852</v>
+        <v>-0.02828032644029027</v>
       </c>
       <c r="D16">
-        <v>-0.04755475317723968</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06036287541096828</v>
+      </c>
+      <c r="E16">
+        <v>-0.003516527030078647</v>
+      </c>
+      <c r="F16">
+        <v>-0.02748254790460823</v>
+      </c>
+      <c r="G16">
+        <v>0.003250013023460886</v>
+      </c>
+      <c r="H16">
+        <v>-0.05345404933765844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06229104238010635</v>
+        <v>0.06329303594343866</v>
       </c>
       <c r="C20">
-        <v>0.02425038921748612</v>
+        <v>-0.01018551756036703</v>
       </c>
       <c r="D20">
-        <v>-0.05295773029387481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03835295178646591</v>
+      </c>
+      <c r="E20">
+        <v>-0.01788028242073557</v>
+      </c>
+      <c r="F20">
+        <v>-0.0270263667392015</v>
+      </c>
+      <c r="G20">
+        <v>-0.01514069375649365</v>
+      </c>
+      <c r="H20">
+        <v>-0.0468757135023369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02614380796683843</v>
+        <v>0.0261287532720621</v>
       </c>
       <c r="C21">
-        <v>-0.003451147602060159</v>
+        <v>0.01029079607129322</v>
       </c>
       <c r="D21">
-        <v>-0.02763367854439412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02556760172240058</v>
+      </c>
+      <c r="E21">
+        <v>-0.04558209011467557</v>
+      </c>
+      <c r="F21">
+        <v>0.0148363945945363</v>
+      </c>
+      <c r="G21">
+        <v>-0.007773390485954239</v>
+      </c>
+      <c r="H21">
+        <v>0.04768845746357508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07848795589657914</v>
+        <v>0.07303258500412885</v>
       </c>
       <c r="C22">
-        <v>0.06250832840742822</v>
+        <v>-0.04097192982750624</v>
       </c>
       <c r="D22">
-        <v>-0.1182090499143411</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08195262904634039</v>
+      </c>
+      <c r="E22">
+        <v>-0.5995984202374723</v>
+      </c>
+      <c r="F22">
+        <v>0.1655878842285087</v>
+      </c>
+      <c r="G22">
+        <v>0.07291863645016484</v>
+      </c>
+      <c r="H22">
+        <v>0.1577960821689691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07943545945041926</v>
+        <v>0.07377216163599723</v>
       </c>
       <c r="C23">
-        <v>0.06122612887710767</v>
+        <v>-0.03942162383315385</v>
       </c>
       <c r="D23">
-        <v>-0.1197394588645492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08289177496079278</v>
+      </c>
+      <c r="E23">
+        <v>-0.5988975517258409</v>
+      </c>
+      <c r="F23">
+        <v>0.1645950792693695</v>
+      </c>
+      <c r="G23">
+        <v>0.07171006356753344</v>
+      </c>
+      <c r="H23">
+        <v>0.1534719518174215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07433925124683152</v>
+        <v>0.08090080726239851</v>
       </c>
       <c r="C24">
-        <v>0.05145099104977853</v>
+        <v>-0.03448857354197098</v>
       </c>
       <c r="D24">
-        <v>-0.06061773323760498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06068758195458059</v>
+      </c>
+      <c r="E24">
+        <v>-0.01705242392039615</v>
+      </c>
+      <c r="F24">
+        <v>-0.03662943092572561</v>
+      </c>
+      <c r="G24">
+        <v>-0.01305685177861196</v>
+      </c>
+      <c r="H24">
+        <v>-0.05092940954618868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07360956944896194</v>
+        <v>0.07898564740115169</v>
       </c>
       <c r="C25">
-        <v>0.05442586582484529</v>
+        <v>-0.03730533563462075</v>
       </c>
       <c r="D25">
-        <v>-0.0671114394206855</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05243476249990232</v>
+      </c>
+      <c r="E25">
+        <v>-0.01937200906934314</v>
+      </c>
+      <c r="F25">
+        <v>-0.02760346803096434</v>
+      </c>
+      <c r="G25">
+        <v>-0.02052557539419811</v>
+      </c>
+      <c r="H25">
+        <v>-0.05525578727644692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0457678657574987</v>
+        <v>0.04760703706493941</v>
       </c>
       <c r="C26">
-        <v>0.00989974888935099</v>
+        <v>-0.003168966387578988</v>
       </c>
       <c r="D26">
-        <v>-0.01316791394878861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01783342186935181</v>
+      </c>
+      <c r="E26">
+        <v>-0.04776945979378188</v>
+      </c>
+      <c r="F26">
+        <v>-0.02786984535435574</v>
+      </c>
+      <c r="G26">
+        <v>0.008399615749252767</v>
+      </c>
+      <c r="H26">
+        <v>-0.05962097214996651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05333835973012634</v>
+        <v>0.06193110644818969</v>
       </c>
       <c r="C28">
-        <v>0.06482897098404319</v>
+        <v>-0.08750349831194097</v>
       </c>
       <c r="D28">
-        <v>0.3115254898200122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3059581876790964</v>
+      </c>
+      <c r="E28">
+        <v>-0.0325054635067791</v>
+      </c>
+      <c r="F28">
+        <v>-0.05424519653313602</v>
+      </c>
+      <c r="G28">
+        <v>-0.03015269999975928</v>
+      </c>
+      <c r="H28">
+        <v>0.04228502758630419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04198569058888475</v>
+        <v>0.04840474521476284</v>
       </c>
       <c r="C29">
-        <v>0.02942613387680755</v>
+        <v>-0.02578919502283789</v>
       </c>
       <c r="D29">
-        <v>-0.008482499414243746</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008582948234436854</v>
+      </c>
+      <c r="E29">
+        <v>-0.05935038350680371</v>
+      </c>
+      <c r="F29">
+        <v>-0.009641539844734079</v>
+      </c>
+      <c r="G29">
+        <v>0.009526600388886509</v>
+      </c>
+      <c r="H29">
+        <v>-0.07660201562357091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1277073358867468</v>
+        <v>0.1310905618481751</v>
       </c>
       <c r="C30">
-        <v>0.08659855289547558</v>
+        <v>-0.06144210015133677</v>
       </c>
       <c r="D30">
-        <v>-0.1005165378410458</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06968535654128165</v>
+      </c>
+      <c r="E30">
+        <v>-0.07937859237570949</v>
+      </c>
+      <c r="F30">
+        <v>0.007649840029928273</v>
+      </c>
+      <c r="G30">
+        <v>-0.08157121881499543</v>
+      </c>
+      <c r="H30">
+        <v>0.0421909667401958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04416894273076454</v>
+        <v>0.04893432686088123</v>
       </c>
       <c r="C31">
-        <v>0.02224144447881612</v>
+        <v>-0.01422451053263521</v>
       </c>
       <c r="D31">
-        <v>-0.02197786482333187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02816959355911653</v>
+      </c>
+      <c r="E31">
+        <v>-0.02370362590596448</v>
+      </c>
+      <c r="F31">
+        <v>-0.0124233975123641</v>
+      </c>
+      <c r="G31">
+        <v>0.02425010327045985</v>
+      </c>
+      <c r="H31">
+        <v>-0.06388561534862638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0391978902181137</v>
+        <v>0.03943929887818865</v>
       </c>
       <c r="C32">
-        <v>0.02724105197911159</v>
+        <v>-0.02194022181789372</v>
       </c>
       <c r="D32">
-        <v>-0.02379583303732058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01126668908308279</v>
+      </c>
+      <c r="E32">
+        <v>-0.05156577735386669</v>
+      </c>
+      <c r="F32">
+        <v>0.008077985227619967</v>
+      </c>
+      <c r="G32">
+        <v>-0.02712254466767307</v>
+      </c>
+      <c r="H32">
+        <v>-0.07071209425306552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08470185457476082</v>
+        <v>0.09621534852386239</v>
       </c>
       <c r="C33">
-        <v>0.04067407607459035</v>
+        <v>-0.0265878299693612</v>
       </c>
       <c r="D33">
-        <v>-0.06026650666482292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04546572815343791</v>
+      </c>
+      <c r="E33">
+        <v>-0.01445574603466646</v>
+      </c>
+      <c r="F33">
+        <v>-0.006933977789096779</v>
+      </c>
+      <c r="G33">
+        <v>0.006712936246538316</v>
+      </c>
+      <c r="H33">
+        <v>-0.05443163657991069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05883089192637909</v>
+        <v>0.06398321492345389</v>
       </c>
       <c r="C34">
-        <v>0.02622606686586451</v>
+        <v>-0.01227400760849762</v>
       </c>
       <c r="D34">
-        <v>-0.05696989148878599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0510442282009004</v>
+      </c>
+      <c r="E34">
+        <v>-0.007542477888226542</v>
+      </c>
+      <c r="F34">
+        <v>-0.01859801905586896</v>
+      </c>
+      <c r="G34">
+        <v>0.0007697210752385576</v>
+      </c>
+      <c r="H34">
+        <v>-0.06071941900791448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03794753684894765</v>
+        <v>0.03948507005851844</v>
       </c>
       <c r="C35">
-        <v>0.007960236420235633</v>
+        <v>-0.002892631058948884</v>
       </c>
       <c r="D35">
-        <v>-0.01416300012561977</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.00999705690523188</v>
+      </c>
+      <c r="E35">
+        <v>-0.0205145561931921</v>
+      </c>
+      <c r="F35">
+        <v>0.01433832280824009</v>
+      </c>
+      <c r="G35">
+        <v>0.008615992552907731</v>
+      </c>
+      <c r="H35">
+        <v>-0.01748884927498501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02252273685811085</v>
+        <v>0.02885458831240288</v>
       </c>
       <c r="C36">
-        <v>0.01688974657478045</v>
+        <v>-0.01475149632964773</v>
       </c>
       <c r="D36">
-        <v>-0.02385862372165214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01626898019737485</v>
+      </c>
+      <c r="E36">
+        <v>-0.03219224427168543</v>
+      </c>
+      <c r="F36">
+        <v>-0.02095866370609408</v>
+      </c>
+      <c r="G36">
+        <v>0.008188704273913903</v>
+      </c>
+      <c r="H36">
+        <v>-0.04830373599251011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04178435780255486</v>
+        <v>0.04462471532665215</v>
       </c>
       <c r="C38">
-        <v>0.001709203524119348</v>
+        <v>0.003794714919380923</v>
       </c>
       <c r="D38">
-        <v>-0.01649671746593748</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01721506846045778</v>
+      </c>
+      <c r="E38">
+        <v>-0.05353301211999451</v>
+      </c>
+      <c r="F38">
+        <v>0.004176277699247599</v>
+      </c>
+      <c r="G38">
+        <v>-0.008253033345465009</v>
+      </c>
+      <c r="H38">
+        <v>-0.03981516636286089</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09302327480922477</v>
+        <v>0.1023291226236335</v>
       </c>
       <c r="C39">
-        <v>0.07099374630073461</v>
+        <v>-0.05069156883969404</v>
       </c>
       <c r="D39">
-        <v>-0.05633378740940293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06227571623938891</v>
+      </c>
+      <c r="E39">
+        <v>-0.003708784882853487</v>
+      </c>
+      <c r="F39">
+        <v>0.001188818492678372</v>
+      </c>
+      <c r="G39">
+        <v>-0.03603166224151701</v>
+      </c>
+      <c r="H39">
+        <v>-0.04586408913408114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07809830485911037</v>
+        <v>0.07133217939085684</v>
       </c>
       <c r="C40">
-        <v>0.03269395244048882</v>
+        <v>-0.01423884605653595</v>
       </c>
       <c r="D40">
-        <v>0.0002230180378485197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.009289598502201173</v>
+      </c>
+      <c r="E40">
+        <v>-0.02217763363080106</v>
+      </c>
+      <c r="F40">
+        <v>0.05744115403635761</v>
+      </c>
+      <c r="G40">
+        <v>-0.06063917063637565</v>
+      </c>
+      <c r="H40">
+        <v>0.09285259944965311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04242499090461636</v>
+        <v>0.0447349231574961</v>
       </c>
       <c r="C41">
-        <v>0.004797487885559398</v>
+        <v>0.002867511777055961</v>
       </c>
       <c r="D41">
-        <v>-0.03239021193414104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03246802078869811</v>
+      </c>
+      <c r="E41">
+        <v>-0.0002504841208615804</v>
+      </c>
+      <c r="F41">
+        <v>0.01466358799316529</v>
+      </c>
+      <c r="G41">
+        <v>-0.009532273467937608</v>
+      </c>
+      <c r="H41">
+        <v>-0.03556171478336183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05076292869012974</v>
+        <v>0.05924608175668963</v>
       </c>
       <c r="C43">
-        <v>0.02513254148362921</v>
+        <v>-0.01831236567847545</v>
       </c>
       <c r="D43">
-        <v>-0.01596998603196358</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02460773054454156</v>
+      </c>
+      <c r="E43">
+        <v>-0.02065101541978093</v>
+      </c>
+      <c r="F43">
+        <v>-0.01248505748812148</v>
+      </c>
+      <c r="G43">
+        <v>0.01753486863367129</v>
+      </c>
+      <c r="H43">
+        <v>-0.05693450559152662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09724757504062721</v>
+        <v>0.09830796929638094</v>
       </c>
       <c r="C44">
-        <v>0.08643143402615745</v>
+        <v>-0.06357874994502127</v>
       </c>
       <c r="D44">
-        <v>-0.07419617161446754</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05319215882496637</v>
+      </c>
+      <c r="E44">
+        <v>-0.0844230184727644</v>
+      </c>
+      <c r="F44">
+        <v>-0.06534921490800341</v>
+      </c>
+      <c r="G44">
+        <v>-0.03245660372378811</v>
+      </c>
+      <c r="H44">
+        <v>-0.02273815746918607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02591477667297524</v>
+        <v>0.03390738703818195</v>
       </c>
       <c r="C46">
-        <v>0.01528860805460967</v>
+        <v>-0.01174874645237593</v>
       </c>
       <c r="D46">
-        <v>-0.02537088074341507</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0352027358883969</v>
+      </c>
+      <c r="E46">
+        <v>-0.03549486561611911</v>
+      </c>
+      <c r="F46">
+        <v>-0.01419546279597361</v>
+      </c>
+      <c r="G46">
+        <v>0.01009451734387279</v>
+      </c>
+      <c r="H46">
+        <v>-0.03658154067226212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0305341675227245</v>
+        <v>0.03853134896966421</v>
       </c>
       <c r="C47">
-        <v>0.02441981988678172</v>
+        <v>-0.02127821945025643</v>
       </c>
       <c r="D47">
-        <v>-0.01083688076550554</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008546343468117121</v>
+      </c>
+      <c r="E47">
+        <v>-0.04526213584466307</v>
+      </c>
+      <c r="F47">
+        <v>-0.01079395652605972</v>
+      </c>
+      <c r="G47">
+        <v>0.04399767873879798</v>
+      </c>
+      <c r="H47">
+        <v>-0.02639182726072444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0340156549552981</v>
+        <v>0.03841520139470152</v>
       </c>
       <c r="C48">
-        <v>0.01793996397995394</v>
+        <v>-0.01107042265359388</v>
       </c>
       <c r="D48">
-        <v>-0.03065020636817985</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01968307345947189</v>
+      </c>
+      <c r="E48">
+        <v>-0.04076806653782063</v>
+      </c>
+      <c r="F48">
+        <v>-0.007374597627567553</v>
+      </c>
+      <c r="G48">
+        <v>-0.013343368566633</v>
+      </c>
+      <c r="H48">
+        <v>-0.04226375415231321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1621208690287787</v>
+        <v>0.1893947690572502</v>
       </c>
       <c r="C49">
-        <v>0.04949990199102123</v>
+        <v>-0.03081706304285509</v>
       </c>
       <c r="D49">
-        <v>0.007402425127231907</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02854390455227779</v>
+      </c>
+      <c r="E49">
+        <v>0.1557736698314667</v>
+      </c>
+      <c r="F49">
+        <v>-0.05949565531635968</v>
+      </c>
+      <c r="G49">
+        <v>0.05966972401189013</v>
+      </c>
+      <c r="H49">
+        <v>0.2283580575784361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04030486089886656</v>
+        <v>0.04637496494174187</v>
       </c>
       <c r="C50">
-        <v>0.02069058266563754</v>
+        <v>-0.01436634698318381</v>
       </c>
       <c r="D50">
-        <v>-0.03980817564130183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03318229188335813</v>
+      </c>
+      <c r="E50">
+        <v>-0.04249640423892578</v>
+      </c>
+      <c r="F50">
+        <v>-0.0152012566506523</v>
+      </c>
+      <c r="G50">
+        <v>0.02256860544765611</v>
+      </c>
+      <c r="H50">
+        <v>-0.06595826542386403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02855281260679909</v>
+        <v>0.03029509285844989</v>
       </c>
       <c r="C51">
-        <v>0.0106690711391688</v>
+        <v>-0.004356190975956054</v>
       </c>
       <c r="D51">
-        <v>-0.00946078569023864</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01171530707293209</v>
+      </c>
+      <c r="E51">
+        <v>-0.01340077814334566</v>
+      </c>
+      <c r="F51">
+        <v>-0.01544759246773268</v>
+      </c>
+      <c r="G51">
+        <v>0.0003750969189405543</v>
+      </c>
+      <c r="H51">
+        <v>-0.0005264902859056329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1549871852521153</v>
+        <v>0.1631528669599357</v>
       </c>
       <c r="C53">
-        <v>0.07200092512506398</v>
+        <v>-0.04968254295379663</v>
       </c>
       <c r="D53">
-        <v>-0.009095475872878542</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01960873032898643</v>
+      </c>
+      <c r="E53">
+        <v>0.03141852853373609</v>
+      </c>
+      <c r="F53">
+        <v>-0.01527493026307582</v>
+      </c>
+      <c r="G53">
+        <v>0.02516074065907899</v>
+      </c>
+      <c r="H53">
+        <v>-0.1756114069215486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05796304714925128</v>
+        <v>0.05862923097874117</v>
       </c>
       <c r="C54">
-        <v>0.0238812568381828</v>
+        <v>-0.01357260423632645</v>
       </c>
       <c r="D54">
-        <v>-0.02120239866180701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01537576168315016</v>
+      </c>
+      <c r="E54">
+        <v>-0.0463194937920262</v>
+      </c>
+      <c r="F54">
+        <v>-0.007266627580116944</v>
+      </c>
+      <c r="G54">
+        <v>-0.01307271796382089</v>
+      </c>
+      <c r="H54">
+        <v>-0.05190922875475591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1001298631696984</v>
+        <v>0.103935391706362</v>
       </c>
       <c r="C55">
-        <v>0.04978898932929235</v>
+        <v>-0.03350674168963983</v>
       </c>
       <c r="D55">
-        <v>-0.01873049597520097</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02369213517985314</v>
+      </c>
+      <c r="E55">
+        <v>-0.00963627950057778</v>
+      </c>
+      <c r="F55">
+        <v>-0.0151928756929119</v>
+      </c>
+      <c r="G55">
+        <v>0.01654143587291391</v>
+      </c>
+      <c r="H55">
+        <v>-0.1533649936708062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1520673246548214</v>
+        <v>0.162371238348481</v>
       </c>
       <c r="C56">
-        <v>0.08459879923032275</v>
+        <v>-0.06092699415921847</v>
       </c>
       <c r="D56">
-        <v>-0.01521182297327342</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02309806676408637</v>
+      </c>
+      <c r="E56">
+        <v>0.02203390395237048</v>
+      </c>
+      <c r="F56">
+        <v>-0.03067530526056692</v>
+      </c>
+      <c r="G56">
+        <v>0.03959404769125049</v>
+      </c>
+      <c r="H56">
+        <v>-0.1721367659240245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1304420556963533</v>
+        <v>0.1009299615984771</v>
       </c>
       <c r="C58">
-        <v>-0.002575100504062896</v>
+        <v>0.04307204231879747</v>
       </c>
       <c r="D58">
-        <v>-0.03126431259735343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03351382996776355</v>
+      </c>
+      <c r="E58">
+        <v>-0.1439630039931636</v>
+      </c>
+      <c r="F58">
+        <v>0.003765246216556319</v>
+      </c>
+      <c r="G58">
+        <v>0.01627750089845348</v>
+      </c>
+      <c r="H58">
+        <v>0.2265860552066296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1228367236312626</v>
+        <v>0.1373665050276687</v>
       </c>
       <c r="C59">
-        <v>0.07202054395501141</v>
+        <v>-0.09411629713438333</v>
       </c>
       <c r="D59">
-        <v>0.3696997634567739</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3634357664283772</v>
+      </c>
+      <c r="E59">
+        <v>-0.02577537003208002</v>
+      </c>
+      <c r="F59">
+        <v>-0.01516725927584605</v>
+      </c>
+      <c r="G59">
+        <v>0.01803515313317012</v>
+      </c>
+      <c r="H59">
+        <v>-0.001183851458193355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2059233723945152</v>
+        <v>0.2346354270436518</v>
       </c>
       <c r="C60">
-        <v>0.08969228110402915</v>
+        <v>-0.06259915321640107</v>
       </c>
       <c r="D60">
-        <v>-0.02296185930763399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04432382963359088</v>
+      </c>
+      <c r="E60">
+        <v>0.09822537371990676</v>
+      </c>
+      <c r="F60">
+        <v>-0.056782062464214</v>
+      </c>
+      <c r="G60">
+        <v>-0.02061764498652719</v>
+      </c>
+      <c r="H60">
+        <v>0.145860537730723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08322986315075827</v>
+        <v>0.0896388727346885</v>
       </c>
       <c r="C61">
-        <v>0.04995299598753828</v>
+        <v>-0.0359307927272742</v>
       </c>
       <c r="D61">
-        <v>-0.04405022320926975</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04191027663519466</v>
+      </c>
+      <c r="E61">
+        <v>-0.0009289387944319571</v>
+      </c>
+      <c r="F61">
+        <v>-0.001122414886257019</v>
+      </c>
+      <c r="G61">
+        <v>0.0002066694190732274</v>
+      </c>
+      <c r="H61">
+        <v>-0.0621661550796319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1319097042357703</v>
+        <v>0.1386360214126285</v>
       </c>
       <c r="C62">
-        <v>0.05924623192452223</v>
+        <v>-0.03653018513746898</v>
       </c>
       <c r="D62">
-        <v>-0.0191980128274296</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03307785607327168</v>
+      </c>
+      <c r="E62">
+        <v>0.06043747363033911</v>
+      </c>
+      <c r="F62">
+        <v>-0.01051285015983698</v>
+      </c>
+      <c r="G62">
+        <v>-0.002653541946015744</v>
+      </c>
+      <c r="H62">
+        <v>-0.1791205439626293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05176079211114911</v>
+        <v>0.05126752229553865</v>
       </c>
       <c r="C63">
-        <v>0.02261386874338949</v>
+        <v>-0.012626443830909</v>
       </c>
       <c r="D63">
-        <v>-0.02258789329744557</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01989067458935998</v>
+      </c>
+      <c r="E63">
+        <v>-0.04872592593195603</v>
+      </c>
+      <c r="F63">
+        <v>0.006878344484655017</v>
+      </c>
+      <c r="G63">
+        <v>-0.01966678519953015</v>
+      </c>
+      <c r="H63">
+        <v>-0.05290325384542224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1032746220802808</v>
+        <v>0.1080307992467833</v>
       </c>
       <c r="C64">
-        <v>0.03095152884066597</v>
+        <v>-0.0161982223516654</v>
       </c>
       <c r="D64">
-        <v>-0.04317743017074228</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03186952689071734</v>
+      </c>
+      <c r="E64">
+        <v>-0.03141187655726449</v>
+      </c>
+      <c r="F64">
+        <v>-0.03821074386778779</v>
+      </c>
+      <c r="G64">
+        <v>-0.04698652038285354</v>
+      </c>
+      <c r="H64">
+        <v>-0.04671441312079669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1271075162917938</v>
+        <v>0.1267214424342591</v>
       </c>
       <c r="C65">
-        <v>0.05852097986554375</v>
+        <v>-0.03965784123976649</v>
       </c>
       <c r="D65">
-        <v>0.01293327170293721</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.006973179052778963</v>
+      </c>
+      <c r="E65">
+        <v>-0.001393354334549944</v>
+      </c>
+      <c r="F65">
+        <v>-0.05405004548050097</v>
+      </c>
+      <c r="G65">
+        <v>-0.06100066814784743</v>
+      </c>
+      <c r="H65">
+        <v>0.1510412757130241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1486640799674363</v>
+        <v>0.1546792260422634</v>
       </c>
       <c r="C66">
-        <v>0.06918023401228121</v>
+        <v>-0.04019312856408222</v>
       </c>
       <c r="D66">
-        <v>-0.109551640908158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09734234919538748</v>
+      </c>
+      <c r="E66">
+        <v>0.02394701931355722</v>
+      </c>
+      <c r="F66">
+        <v>-0.007648448651803664</v>
+      </c>
+      <c r="G66">
+        <v>-0.04055972914685853</v>
+      </c>
+      <c r="H66">
+        <v>-0.1139361829458388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07491027840999689</v>
+        <v>0.08471931749346122</v>
       </c>
       <c r="C67">
-        <v>0.009857646389423526</v>
+        <v>-0.001378466523034651</v>
       </c>
       <c r="D67">
-        <v>-0.01982983450926844</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02907255350454813</v>
+      </c>
+      <c r="E67">
+        <v>-0.02105225144920229</v>
+      </c>
+      <c r="F67">
+        <v>-0.02255408194494046</v>
+      </c>
+      <c r="G67">
+        <v>0.01002727952080696</v>
+      </c>
+      <c r="H67">
+        <v>-0.0430952936398899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05914889409200803</v>
+        <v>0.05738583486627211</v>
       </c>
       <c r="C68">
-        <v>0.04589847452396587</v>
+        <v>-0.064443994099126</v>
       </c>
       <c r="D68">
-        <v>0.2552547061110627</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2686908374188979</v>
+      </c>
+      <c r="E68">
+        <v>-0.03724953393549289</v>
+      </c>
+      <c r="F68">
+        <v>-0.01415712416999679</v>
+      </c>
+      <c r="G68">
+        <v>0.0139473068489914</v>
+      </c>
+      <c r="H68">
+        <v>-0.008111100616813732</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05191290330323185</v>
+        <v>0.05299338590769341</v>
       </c>
       <c r="C69">
-        <v>0.01538307736536748</v>
+        <v>-0.005273194249971929</v>
       </c>
       <c r="D69">
-        <v>-0.02084459081658877</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01600664060519041</v>
+      </c>
+      <c r="E69">
+        <v>-0.0265255767768977</v>
+      </c>
+      <c r="F69">
+        <v>0.007386630103247757</v>
+      </c>
+      <c r="G69">
+        <v>0.02344162944298766</v>
+      </c>
+      <c r="H69">
+        <v>-0.04865090505994949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004387600306962772</v>
+        <v>0.02680095634812442</v>
       </c>
       <c r="C70">
-        <v>-0.006048033284044168</v>
+        <v>0.001629965171628469</v>
       </c>
       <c r="D70">
-        <v>-0.004283364988501241</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007513985471477079</v>
+      </c>
+      <c r="E70">
+        <v>0.02358153822895449</v>
+      </c>
+      <c r="F70">
+        <v>-0.01188530897413254</v>
+      </c>
+      <c r="G70">
+        <v>0.0287421381777405</v>
+      </c>
+      <c r="H70">
+        <v>0.02408216478909934</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05824395229790267</v>
+        <v>0.05966701327285982</v>
       </c>
       <c r="C71">
-        <v>0.04540221954454769</v>
+        <v>-0.06933391945575691</v>
       </c>
       <c r="D71">
-        <v>0.2933193411766991</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2945281048249383</v>
+      </c>
+      <c r="E71">
+        <v>-0.03362125088418239</v>
+      </c>
+      <c r="F71">
+        <v>-0.04295961660868309</v>
+      </c>
+      <c r="G71">
+        <v>0.001683388938512591</v>
+      </c>
+      <c r="H71">
+        <v>-0.009153242865607394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1431429538789478</v>
+        <v>0.1443961005889284</v>
       </c>
       <c r="C72">
-        <v>0.05948766648751306</v>
+        <v>-0.03264523469790501</v>
       </c>
       <c r="D72">
-        <v>-0.001778132085983224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006403831611505168</v>
+      </c>
+      <c r="E72">
+        <v>0.08398109022988927</v>
+      </c>
+      <c r="F72">
+        <v>0.1659624278434804</v>
+      </c>
+      <c r="G72">
+        <v>-0.1190967986477368</v>
+      </c>
+      <c r="H72">
+        <v>-0.01611725004575762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2847703694917827</v>
+        <v>0.2897230243598488</v>
       </c>
       <c r="C73">
-        <v>0.09630098273074207</v>
+        <v>-0.03706844305071404</v>
       </c>
       <c r="D73">
-        <v>-0.04773121270568006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09262190718108666</v>
+      </c>
+      <c r="E73">
+        <v>0.214102143793547</v>
+      </c>
+      <c r="F73">
+        <v>-0.09624781225949301</v>
+      </c>
+      <c r="G73">
+        <v>0.1329033399599559</v>
+      </c>
+      <c r="H73">
+        <v>0.5095528310586056</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08153353278022456</v>
+        <v>0.09174619805144042</v>
       </c>
       <c r="C74">
-        <v>0.07497596453697969</v>
+        <v>-0.06023895121379502</v>
       </c>
       <c r="D74">
-        <v>-0.01090804331028276</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0316427322577536</v>
+      </c>
+      <c r="E74">
+        <v>0.004271777528837266</v>
+      </c>
+      <c r="F74">
+        <v>-0.0008338229794678659</v>
+      </c>
+      <c r="G74">
+        <v>0.05539339373524659</v>
+      </c>
+      <c r="H74">
+        <v>-0.1116068081376607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09669882481560992</v>
+        <v>0.1016364248910203</v>
       </c>
       <c r="C75">
-        <v>0.04783357877925311</v>
+        <v>-0.02673937110591866</v>
       </c>
       <c r="D75">
-        <v>-0.006383003210767789</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01499345774001209</v>
+      </c>
+      <c r="E75">
+        <v>-0.002606285570996808</v>
+      </c>
+      <c r="F75">
+        <v>-0.02220555931222272</v>
+      </c>
+      <c r="G75">
+        <v>0.02582525308183914</v>
+      </c>
+      <c r="H75">
+        <v>-0.111075655113219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1326131670689832</v>
+        <v>0.1420790643049917</v>
       </c>
       <c r="C76">
-        <v>0.08031191578685581</v>
+        <v>-0.05840735789177345</v>
       </c>
       <c r="D76">
-        <v>-0.04316563090581684</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04802194418771042</v>
+      </c>
+      <c r="E76">
+        <v>-0.01592105709489273</v>
+      </c>
+      <c r="F76">
+        <v>-0.04659427180814671</v>
+      </c>
+      <c r="G76">
+        <v>0.01865870824251099</v>
+      </c>
+      <c r="H76">
+        <v>-0.1939315624922475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1169114745921924</v>
+        <v>0.1073811639960921</v>
       </c>
       <c r="C77">
-        <v>0.00834152973906733</v>
+        <v>0.01734066427383285</v>
       </c>
       <c r="D77">
-        <v>-0.06727750057663298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02521761634386441</v>
+      </c>
+      <c r="E77">
+        <v>-0.02340812358113465</v>
+      </c>
+      <c r="F77">
+        <v>-0.09994363347957783</v>
+      </c>
+      <c r="G77">
+        <v>-0.8899907161074436</v>
+      </c>
+      <c r="H77">
+        <v>0.08407164838523823</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.106812942283548</v>
+        <v>0.1447857567946365</v>
       </c>
       <c r="C78">
-        <v>0.03656129446419317</v>
+        <v>-0.0313136838441912</v>
       </c>
       <c r="D78">
-        <v>-0.08349407280217455</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08045863680193258</v>
+      </c>
+      <c r="E78">
+        <v>-0.05580076875395847</v>
+      </c>
+      <c r="F78">
+        <v>-0.05219448411895389</v>
+      </c>
+      <c r="G78">
+        <v>-0.08769484097010749</v>
+      </c>
+      <c r="H78">
+        <v>0.02618727928564793</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1481710521569519</v>
+        <v>0.1512803797061907</v>
       </c>
       <c r="C79">
-        <v>0.06595835306152226</v>
+        <v>-0.0386447114776288</v>
       </c>
       <c r="D79">
-        <v>-0.02553705217503296</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02837348664751378</v>
+      </c>
+      <c r="E79">
+        <v>0.01965976440995496</v>
+      </c>
+      <c r="F79">
+        <v>-0.01947797244178951</v>
+      </c>
+      <c r="G79">
+        <v>0.04310480641945062</v>
+      </c>
+      <c r="H79">
+        <v>-0.1670508067965037</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04225312733429563</v>
+        <v>0.04328946425543035</v>
       </c>
       <c r="C80">
-        <v>0.01964865444447771</v>
+        <v>-0.01460518357816951</v>
       </c>
       <c r="D80">
-        <v>-0.02797755746313308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01186422445214646</v>
+      </c>
+      <c r="E80">
+        <v>0.02989278033345068</v>
+      </c>
+      <c r="F80">
+        <v>-0.009008534094263975</v>
+      </c>
+      <c r="G80">
+        <v>0.02275524687459164</v>
+      </c>
+      <c r="H80">
+        <v>-0.0374795414579074</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1188752713989369</v>
+        <v>0.12056298205899</v>
       </c>
       <c r="C81">
-        <v>0.05956787226607645</v>
+        <v>-0.03681348732772129</v>
       </c>
       <c r="D81">
-        <v>-0.02820443171378002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02355726545382525</v>
+      </c>
+      <c r="E81">
+        <v>-0.009414798071865984</v>
+      </c>
+      <c r="F81">
+        <v>-0.01934041474791431</v>
+      </c>
+      <c r="G81">
+        <v>0.05906920014543351</v>
+      </c>
+      <c r="H81">
+        <v>-0.1509525919671267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1305037122709098</v>
+        <v>0.1315222994053208</v>
       </c>
       <c r="C82">
-        <v>0.07052206976207838</v>
+        <v>-0.04859063275586184</v>
       </c>
       <c r="D82">
-        <v>-0.01606211565203472</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02716953818528322</v>
+      </c>
+      <c r="E82">
+        <v>0.01889381784394508</v>
+      </c>
+      <c r="F82">
+        <v>-0.0500760670204</v>
+      </c>
+      <c r="G82">
+        <v>0.05679252828420065</v>
+      </c>
+      <c r="H82">
+        <v>-0.2110851190983885</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07484792660145972</v>
+        <v>0.08565635284567648</v>
       </c>
       <c r="C83">
-        <v>-0.01752554492437457</v>
+        <v>0.0300292511936682</v>
       </c>
       <c r="D83">
-        <v>-0.03117541565591208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03370106320691053</v>
+      </c>
+      <c r="E83">
+        <v>-0.0215886584840889</v>
+      </c>
+      <c r="F83">
+        <v>-0.05664819062130377</v>
+      </c>
+      <c r="G83">
+        <v>0.0809567028492495</v>
+      </c>
+      <c r="H83">
+        <v>0.05010972422474876</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02957721439548898</v>
+        <v>0.03736908973746333</v>
       </c>
       <c r="C84">
-        <v>0.0286107383817327</v>
+        <v>-0.02324585379446577</v>
       </c>
       <c r="D84">
-        <v>-0.0278253294222048</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03141042029075017</v>
+      </c>
+      <c r="E84">
+        <v>-0.02824808915695033</v>
+      </c>
+      <c r="F84">
+        <v>0.05048300579185542</v>
+      </c>
+      <c r="G84">
+        <v>0.06522677723718147</v>
+      </c>
+      <c r="H84">
+        <v>-0.00332563365388489</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.120945855991092</v>
+        <v>0.1224876235234846</v>
       </c>
       <c r="C85">
-        <v>0.0444661489785619</v>
+        <v>-0.02323345408425181</v>
       </c>
       <c r="D85">
-        <v>-0.01745346995782092</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02087093331816371</v>
+      </c>
+      <c r="E85">
+        <v>-0.0149522004268815</v>
+      </c>
+      <c r="F85">
+        <v>-0.03750734941335233</v>
+      </c>
+      <c r="G85">
+        <v>0.03543966320801157</v>
+      </c>
+      <c r="H85">
+        <v>-0.1539829646761942</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05429157480875655</v>
+        <v>0.05799947558764822</v>
       </c>
       <c r="C86">
-        <v>0.02135647778976155</v>
+        <v>-0.01119578271661488</v>
       </c>
       <c r="D86">
-        <v>-0.03410835582598525</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03214341079755463</v>
+      </c>
+      <c r="E86">
+        <v>-0.05767125175548973</v>
+      </c>
+      <c r="F86">
+        <v>-0.02622387456999917</v>
+      </c>
+      <c r="G86">
+        <v>0.02640968057778588</v>
+      </c>
+      <c r="H86">
+        <v>0.008650728590713299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1188108911288967</v>
+        <v>0.1225051495061602</v>
       </c>
       <c r="C87">
-        <v>0.06528303946502616</v>
+        <v>-0.03480809708267985</v>
       </c>
       <c r="D87">
-        <v>-0.07631148075833734</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07058712009833852</v>
+      </c>
+      <c r="E87">
+        <v>-0.02243378677876319</v>
+      </c>
+      <c r="F87">
+        <v>-0.01286562552394561</v>
+      </c>
+      <c r="G87">
+        <v>-0.1400676794939789</v>
+      </c>
+      <c r="H87">
+        <v>0.0283057619309351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05308242450568364</v>
+        <v>0.06065510255410821</v>
       </c>
       <c r="C88">
-        <v>0.02831061167440312</v>
+        <v>-0.02018355328676963</v>
       </c>
       <c r="D88">
-        <v>-0.02221623628934477</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03469032853959313</v>
+      </c>
+      <c r="E88">
+        <v>-0.01657948512811473</v>
+      </c>
+      <c r="F88">
+        <v>-0.00936007388235372</v>
+      </c>
+      <c r="G88">
+        <v>-0.003631924179816265</v>
+      </c>
+      <c r="H88">
+        <v>-0.05683902659330149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08843140671635041</v>
+        <v>0.09571202776735935</v>
       </c>
       <c r="C89">
-        <v>0.06736955329090344</v>
+        <v>-0.09266609691561095</v>
       </c>
       <c r="D89">
-        <v>0.3273639110721752</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3480633519373644</v>
+      </c>
+      <c r="E89">
+        <v>-0.0702618116706203</v>
+      </c>
+      <c r="F89">
+        <v>-0.07747129927581077</v>
+      </c>
+      <c r="G89">
+        <v>0.01998557839822819</v>
+      </c>
+      <c r="H89">
+        <v>-0.003766002958921307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07465925976628909</v>
+        <v>0.07811759308233117</v>
       </c>
       <c r="C90">
-        <v>0.05509337980409443</v>
+        <v>-0.07603871302588554</v>
       </c>
       <c r="D90">
-        <v>0.3105795692638065</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3028384046674471</v>
+      </c>
+      <c r="E90">
+        <v>-0.06514955544115648</v>
+      </c>
+      <c r="F90">
+        <v>-0.001626685272023299</v>
+      </c>
+      <c r="G90">
+        <v>0.005713387799134153</v>
+      </c>
+      <c r="H90">
+        <v>-0.003582976339603953</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08920547367646828</v>
+        <v>0.09109358374659976</v>
       </c>
       <c r="C91">
-        <v>0.05102968382319906</v>
+        <v>-0.03079999762266355</v>
       </c>
       <c r="D91">
-        <v>-0.0229254769533644</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03116032358844033</v>
+      </c>
+      <c r="E91">
+        <v>-0.006859509168319737</v>
+      </c>
+      <c r="F91">
+        <v>-0.004473198537835069</v>
+      </c>
+      <c r="G91">
+        <v>0.05190470678790721</v>
+      </c>
+      <c r="H91">
+        <v>-0.08380197222672346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07529751334976949</v>
+        <v>0.0784270590558613</v>
       </c>
       <c r="C92">
-        <v>0.07026741617387924</v>
+        <v>-0.09465458617835096</v>
       </c>
       <c r="D92">
-        <v>0.3399933547152136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3434204401478137</v>
+      </c>
+      <c r="E92">
+        <v>-0.04040397791317225</v>
+      </c>
+      <c r="F92">
+        <v>-0.0474854249698508</v>
+      </c>
+      <c r="G92">
+        <v>-0.01763809102391892</v>
+      </c>
+      <c r="H92">
+        <v>-0.01478786705125903</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06618747768619369</v>
+        <v>0.07541879512500115</v>
       </c>
       <c r="C93">
-        <v>0.06206244864384059</v>
+        <v>-0.08876073252464015</v>
       </c>
       <c r="D93">
-        <v>0.3095711323016069</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.305930205474392</v>
+      </c>
+      <c r="E93">
+        <v>-0.02329528292349952</v>
+      </c>
+      <c r="F93">
+        <v>-0.03765304770581749</v>
+      </c>
+      <c r="G93">
+        <v>-0.01827996767952528</v>
+      </c>
+      <c r="H93">
+        <v>0.01130426419499461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1356839850812797</v>
+        <v>0.1287255019114476</v>
       </c>
       <c r="C94">
-        <v>0.04501378892693118</v>
+        <v>-0.01445900046966608</v>
       </c>
       <c r="D94">
-        <v>-0.03632880678349341</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04571198935114573</v>
+      </c>
+      <c r="E94">
+        <v>0.01716538025707826</v>
+      </c>
+      <c r="F94">
+        <v>-0.01354515861764207</v>
+      </c>
+      <c r="G94">
+        <v>0.06355074019877448</v>
+      </c>
+      <c r="H94">
+        <v>-0.09850680353813394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1228724372322054</v>
+        <v>0.1285398715502564</v>
       </c>
       <c r="C95">
-        <v>0.02729293269616367</v>
+        <v>-0.0007794201372657121</v>
       </c>
       <c r="D95">
-        <v>-0.06555749004571532</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06687901345051152</v>
+      </c>
+      <c r="E95">
+        <v>-0.013962910537304</v>
+      </c>
+      <c r="F95">
+        <v>-0.04068034134909845</v>
+      </c>
+      <c r="G95">
+        <v>-0.01536355986722806</v>
+      </c>
+      <c r="H95">
+        <v>0.03590532558616822</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2206572978055129</v>
+        <v>0.2059128919526546</v>
       </c>
       <c r="C97">
-        <v>0.03819723795157202</v>
+        <v>0.006086389520556543</v>
       </c>
       <c r="D97">
-        <v>0.1050933432953658</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08344086197669054</v>
+      </c>
+      <c r="E97">
+        <v>0.214057407033458</v>
+      </c>
+      <c r="F97">
+        <v>0.901898476509739</v>
+      </c>
+      <c r="G97">
+        <v>-0.06733652279903933</v>
+      </c>
+      <c r="H97">
+        <v>-0.0156633119374488</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2507579235595122</v>
+        <v>0.2763210481906909</v>
       </c>
       <c r="C98">
-        <v>0.0611880987313125</v>
+        <v>-0.02311379572766043</v>
       </c>
       <c r="D98">
-        <v>-0.03322196793682611</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05408230045000952</v>
+      </c>
+      <c r="E98">
+        <v>0.1823051364143794</v>
+      </c>
+      <c r="F98">
+        <v>-0.06949418467180003</v>
+      </c>
+      <c r="G98">
+        <v>0.2354270119599103</v>
+      </c>
+      <c r="H98">
+        <v>0.2495764274514806</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4037777384799394</v>
+        <v>0.2699648776727199</v>
       </c>
       <c r="C99">
-        <v>-0.8976404974284627</v>
+        <v>0.9320992329619736</v>
       </c>
       <c r="D99">
-        <v>0.04804312251832242</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1575545738377693</v>
+      </c>
+      <c r="E99">
+        <v>-0.07384961657092723</v>
+      </c>
+      <c r="F99">
+        <v>-0.05902028373856604</v>
+      </c>
+      <c r="G99">
+        <v>0.02454937625050819</v>
+      </c>
+      <c r="H99">
+        <v>-0.07037245640571098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04182638951474661</v>
+        <v>0.04834349246201965</v>
       </c>
       <c r="C101">
-        <v>0.02955645492382167</v>
+        <v>-0.02602636865256506</v>
       </c>
       <c r="D101">
-        <v>-0.009080931749934847</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008739989090093794</v>
+      </c>
+      <c r="E101">
+        <v>-0.05931539732542927</v>
+      </c>
+      <c r="F101">
+        <v>-0.009330747125254861</v>
+      </c>
+      <c r="G101">
+        <v>0.009930698131572773</v>
+      </c>
+      <c r="H101">
+        <v>-0.07542154704102012</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
